--- a/Table.xlsx
+++ b/Table.xlsx
@@ -58,7 +58,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>13 because of the input "sb_depart"</t>
+    <t>none (but assume "sb_depart" does not transition)</t>
   </si>
   <si>
     <t>none (but unreachable because 12)</t>
